--- a/02-Avancado1-Funcoes/01-RevisaoExcelEssencial/Aula-10-ExcelAvancado1-Revisao-GerenciamentoNomes.xlsx
+++ b/02-Avancado1-Funcoes/01-RevisaoExcelEssencial/Aula-10-ExcelAvancado1-Revisao-GerenciamentoNomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\01-RevisaoExcelEssencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B20C1ED-B8A2-4968-A17A-AD0E1C6EA80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A962D-ED61-49A0-85A6-930606A2822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerenciamento de Nomes" sheetId="4" r:id="rId1"/>
@@ -141,12 +141,66 @@
     <t>Excel Avançado 2 - Recursos</t>
   </si>
   <si>
+    <t>Alternar entre referências relativas, absolutas e mistas</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/alternar-entre-refer%C3%AAncias-relativas-absolutas-e-mistas-dfec08cd-ae65-4f56-839e-5f0d8d0baca9</t>
+  </si>
+  <si>
+    <t>Alternar entre referências relativas e absolutas</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/alternar-entre-refer%C3%AAncias-relativas-e-absolutas-981f5871-7864-42cc-b3f0-41ffa10cc6fc</t>
+  </si>
+  <si>
+    <t>Mover ou copiar uma fórmula</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/mover-ou-copiar-uma-f%C3%B3rmula-1f5cf825-9b07-41b1-8719-bf88b07450c6</t>
+  </si>
+  <si>
+    <t>01. Recomendo criar os nomes em TUDO EM MINÚSCULO (pois as fórmulas são em maiúscula);</t>
+  </si>
+  <si>
+    <t>02. Não utilizar ACENTOS nos nomes (você, água, chapéu, café);</t>
+  </si>
+  <si>
+    <t>03. Não utilizar ESPAÇO nos nomes (contas a pagar);</t>
+  </si>
+  <si>
+    <t>04. Não utilizar CARACTERES ESPECIAIS nos nomes (&amp;, $, #, %, etc);</t>
+  </si>
+  <si>
+    <t>05. Não utilizar nomes com TRÊS LETRAS E NÚMEROS (abc2019, xfd123456);</t>
+  </si>
+  <si>
+    <t>06. Não utilizar nomes iguais de FÓRMULAS/FUNÇÕES (soma, média, etc);</t>
+  </si>
+  <si>
+    <t>09. Nomes são Globais, funciona em todas as planilhas do Arquivo do Excel;</t>
+  </si>
+  <si>
+    <t>10. Nomes pode ser utilizado para interligação de Arquivos do Excel;</t>
+  </si>
+  <si>
+    <t>Usar o Gerenciador de Nomes no Excel</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/usar-o-gerenciador-de-nomes-no-excel-4d8c4c2b-9f7d-44e3-a3b4-9f61bd5c64e4</t>
+  </si>
+  <si>
+    <t>Definir e usar nomes em fórmulas</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/definir-e-usar-nomes-em-f%C3%B3rmulas-4d0f13ac-53b7-422e-afd2-abd7ff379c64</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Executar o cálculo de desconto para o pagamento em </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -155,16 +209,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, no </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -173,16 +227,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, no </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -191,16 +245,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> e no </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -209,67 +263,13 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color indexed="63"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
-      <t>. Descobrir o valor do Percentual de Desconto de cada cursos e diminuir do preço atual (mostrar o valor já com o desconto).</t>
+      <t>. Descobrir o valor do Percentual de Desconto de cada curso e diminuir do preço atual (mostrar o valor já com o desconto).</t>
     </r>
-  </si>
-  <si>
-    <t>Alternar entre referências relativas, absolutas e mistas</t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/pt-br/office/alternar-entre-refer%C3%AAncias-relativas-absolutas-e-mistas-dfec08cd-ae65-4f56-839e-5f0d8d0baca9</t>
-  </si>
-  <si>
-    <t>Alternar entre referências relativas e absolutas</t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/pt-br/office/alternar-entre-refer%C3%AAncias-relativas-e-absolutas-981f5871-7864-42cc-b3f0-41ffa10cc6fc</t>
-  </si>
-  <si>
-    <t>Mover ou copiar uma fórmula</t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/pt-br/office/mover-ou-copiar-uma-f%C3%B3rmula-1f5cf825-9b07-41b1-8719-bf88b07450c6</t>
-  </si>
-  <si>
-    <t>01. Recomendo criar os nomes em TUDO EM MINÚSCULO (pois as fórmulas são em maiúscula);</t>
-  </si>
-  <si>
-    <t>02. Não utilizar ACENTOS nos nomes (você, água, chapéu, café);</t>
-  </si>
-  <si>
-    <t>03. Não utilizar ESPAÇO nos nomes (contas a pagar);</t>
-  </si>
-  <si>
-    <t>04. Não utilizar CARACTERES ESPECIAIS nos nomes (&amp;, $, #, %, etc);</t>
-  </si>
-  <si>
-    <t>05. Não utilizar nomes com TRÊS LETRAS E NÚMEROS (abc2019, xfd123456);</t>
-  </si>
-  <si>
-    <t>06. Não utilizar nomes iguais de FÓRMULAS/FUNÇÕES (soma, média, etc);</t>
-  </si>
-  <si>
-    <t>09. Nomes são Globais, funciona em todas as planilhas do Arquivo do Excel;</t>
-  </si>
-  <si>
-    <t>10. Nomes pode ser utilizado para interligação de Arquivos do Excel;</t>
-  </si>
-  <si>
-    <t>Usar o Gerenciador de Nomes no Excel</t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/pt-br/office/usar-o-gerenciador-de-nomes-no-excel-4d8c4c2b-9f7d-44e3-a3b4-9f61bd5c64e4</t>
-  </si>
-  <si>
-    <t>Definir e usar nomes em fórmulas</t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/pt-br/office/definir-e-usar-nomes-em-f%C3%B3rmulas-4d0f13ac-53b7-422e-afd2-abd7ff379c64</t>
   </si>
 </sst>
 </file>
@@ -279,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -300,12 +300,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -347,30 +341,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color indexed="63"/>
       <name val="Calibri"/>
@@ -398,6 +368,30 @@
     <font>
       <sz val="10"/>
       <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -465,11 +459,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,55 +485,52 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,7 +663,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>156000</xdr:rowOff>
+      <xdr:rowOff>117900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -822,7 +813,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>285144</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>188716</xdr:rowOff>
+      <xdr:rowOff>150616</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -862,10 +853,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1197,84 +1184,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4B9A37-D9C3-4A6E-8CA0-7DD20A372EA4}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="14.25">
-      <c r="A1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="14.25">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="13.8">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="13.8">
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="14.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="14.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="14.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="14.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="13.8">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="13.8">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="13.8">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="13.8">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8" s="22"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -1295,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="14.4">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
@@ -1308,7 +1295,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="14.4">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -1321,7 +1308,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="14.4">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -1334,7 +1321,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="14.4">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1343,71 +1330,71 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:7"/>
+    <row r="14" spans="1:7" ht="14.4">
+      <c r="B14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.4"/>
     <row r="18" spans="2:7" ht="24" customHeight="1">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="2:7" ht="20.25" customHeight="1">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:7" ht="14.4">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="2:7" ht="26.25">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="2:7" ht="25.8">
+      <c r="B21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.6">
       <c r="B22" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -1415,9 +1402,9 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75">
+    <row r="23" spans="2:7" ht="15.6">
       <c r="B23" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -1425,9 +1412,9 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75">
+    <row r="24" spans="2:7" ht="15.6">
       <c r="B24" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -1435,9 +1422,9 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75">
+    <row r="25" spans="2:7" ht="15.6">
       <c r="B25" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1445,9 +1432,9 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75">
+    <row r="26" spans="2:7" ht="15.6">
       <c r="B26" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -1455,9 +1442,9 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75">
+    <row r="27" spans="2:7" ht="15.6">
       <c r="B27" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -1465,7 +1452,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75">
+    <row r="28" spans="2:7" ht="15.6">
       <c r="B28" s="18" t="s">
         <v>5</v>
       </c>
@@ -1475,19 +1462,19 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="20" t="s">
+    <row r="29" spans="2:7" ht="14.4">
+      <c r="B29" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.6">
       <c r="B30" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -1495,9 +1482,9 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="2:7" ht="15.75">
+    <row r="31" spans="2:7" ht="15.6">
       <c r="B31" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -1505,7 +1492,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="2:7" ht="15.75">
+    <row r="32" spans="2:7" ht="15.6">
       <c r="B32" s="18" t="s">
         <v>8</v>
       </c>
@@ -1515,130 +1502,120 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="20" t="s">
+    <row r="33" spans="2:7" ht="14.4">
+      <c r="B33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="2:7" ht="14.4">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="2:7" ht="21">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="2:7" ht="14.4">
+      <c r="B36" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="23" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="2:7" ht="14.4">
+      <c r="B37" s="14"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" ht="21">
+      <c r="B38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="22"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="22" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="2:7" ht="14.4">
+      <c r="B39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="22"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="2:7" ht="14.4">
+      <c r="B40" s="14"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" spans="2:7" ht="21">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="2:7" ht="14.4">
+      <c r="B42" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="16" t="s">
+    </row>
+    <row r="43" spans="2:7" ht="14.4"/>
+    <row r="44" spans="2:7" ht="21">
+      <c r="B44" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:7"/>
-    <row r="44" spans="2:7" ht="21">
-      <c r="B44" s="15" t="s">
+    <row r="45" spans="2:7" ht="14.4">
+      <c r="B45" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="16" t="s">
+    <row r="46" spans="2:7" ht="14.4"/>
+    <row r="47" spans="2:7" ht="21">
+      <c r="B47" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="2:7"/>
-    <row r="47" spans="2:7" ht="21">
-      <c r="B47" s="15" t="s">
+    <row r="48" spans="2:7" ht="14.4">
+      <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49"/>
+    <row r="49" ht="14.4"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B18:G19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
@@ -1646,6 +1623,16 @@
     <mergeCell ref="B2:G6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B14:G16"/>
+    <mergeCell ref="B18:G19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B42" r:id="rId1" xr:uid="{83A66822-2D33-4215-BA6D-D9E06176BC77}"/>
